--- a/medicine/Mort/Décès_en_2021/Décès_en_2021.xlsx
+++ b/medicine/Mort/Décès_en_2021/Décès_en_2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2021</t>
+          <t>Décès_en_2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2021</t>
+          <t>Décès_en_2021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier :
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier :
 Carlos do Carmo, chanteur de fado portugais.
 Simone Chrisostome, résistante française.
 Bernard Guignedoux, footballeur français et premier buteur de l'histoire du Paris SG.
@@ -626,9 +643,43 @@
 30 janvier :
 Sophie, musicienne et productrice de musique électronique écossaise/
 Michel Le Bris, écrivain français.
-31 janvier : Meshoulam David Soloveitchik, rabbin israélien.
-Février
-1er février :
+31 janvier : Meshoulam David Soloveitchik, rabbin israélien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er février :
 Ryszard Szurkowski, cycliste polonais.
 Dustin Diamond, acteur américain.
 2 février : Tom Moore, militaire et philanthrope britannique.
@@ -688,9 +739,43 @@
 26 février :
 Michael Somare, homme politique papouan-néo-guinéen, « père de l’indépendance » de Papouasie-Nouvelle-Guinée.
 Hannu Mikkola, pilote de rallye finlandais.
-28 février : Milan Bandić, personnalité politique yougoslave puis croate.
-Mars
-1er mars :
+28 février : Milan Bandić, personnalité politique yougoslave puis croate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er mars :
 Zlatko Kranjčar, joueur de football croate.
 Anatoliy Zlenko, diplomate et homme politique soviétique puis ukrainien.
 Bernard Guyot, coureur cycliste français.
@@ -756,9 +841,43 @@
 30 mars :
 Gérard Filippelli, acteur, compositeur-interprète français.
 Gordon Liddy, avocat américain.
-Judith Siboni, actrice française.
-Avril
-1er avril :
+Judith Siboni, actrice française.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er avril :
 Patrick Juvet, chanteur, compositeur-interprète.
 Isamu Akasaki, ingénieur japonais.
 2 avril : Simon Bainbridge, compositeur anglais.
@@ -819,9 +938,43 @@
 Liuwe Tamminga, organiste, claveciniste et musicologue néerlandais.
 30 avril :
 Mohamed ben Talal, prince de Jordanie.
-Hans van Baalen, homme politique néerlandais.
-Mai
-1er mai :
+Hans van Baalen, homme politique néerlandais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er mai :
 Pieter Aspe, écrivain belge.
 Tava Colo, supercentenaire française.
 2 mai :
@@ -864,9 +1017,43 @@
 Poul Schlüter, personnalité politique danoise.
 28 mai : Mark Eaton, joueur de basket-ball américain.
 30 mai : Jason Dupasquier, pilote de vitesse moto suisse.
-31 mai : Romain Bouteille, auteur de théâtre, acteur, humoriste et chanteur français.
-Juin
-1er juin :
+31 mai : Romain Bouteille, auteur de théâtre, acteur, humoriste et chanteur français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er juin :
 Hichem Djaït, historien, islamologue et universitaire tunisien.
 Amédée de Savoie-Aoste, prétendant au trône d'Italie.
 2 juin : Linah Mohohlo, banquière et rectrice botswanaise.
@@ -898,9 +1085,43 @@
 29 juin :
 Xavier Lacroix, professeur français de philosophie et de théologie morale.
 Donald Rumsfeld, homme politique américain.
-30 juin : Abbas Bonfoh, homme politique togolais.
-Juillet
-1er juillet : The Patriot, catcheur américain.
+30 juin : Abbas Bonfoh, homme politique togolais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juillet : The Patriot, catcheur américain.
 2 juillet : Bill Ramsey, acteur américain.
 4 juillet : Luminița Gheorghiu, actrice roumaine.
 5 juillet :
@@ -959,9 +1180,43 @@
 30 juillet :
 Monique Thierry, actrice française.
 Jacob Desvarieux, chanteur, musicien, arrangeur et producteur français.
-31 juillet : Man Kaur, athlète indienne.
-Août
-1er août : Guy Herbulot, évêque français.
+31 juillet : Man Kaur, athlète indienne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er août : Guy Herbulot, évêque français.
 2 août : Peter Smith, personnalité politique britannique, baron Smith of Leigh.
 3 août : Aloys Wobben, inventeur et industriel allemand.
 4 août : Graham McRae, pilote de course automobile néo-zélandais.
@@ -1009,9 +1264,43 @@
 29 août :
 Lee Scratch Perry, chanteur et producteur jamaïcain.
 Edward Asner, acteur américain.
-Jacques Rogge, chirurgien orthopédiste belge, huitième président du Comité international olympique.
-Septembre
-2 septembre :
+Jacques Rogge, chirurgien orthopédiste belge, huitième président du Comité international olympique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 septembre :
 Michel Corboz, chef de chœur et chef d'orchestre suisse.
 Míkis Theodorákis, compositeur et homme politique grec.
 4 septembre : Lydia Wevers, écrivaine et critique littéraire néo-zélandaise.
@@ -1044,9 +1333,43 @@
 28 septembre :
 Barry Ryan, chanteur pop britannique et photographe.
 Dr. Lonnie Smith, chanteur et musicien de jazz américain.
-30 septembre : Jacques Lizène, artiste belge.
-Octobre
-2 octobre : Michel Tubiana, avocat français.
+30 septembre : Jacques Lizène, artiste belge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 octobre : Michel Tubiana, avocat français.
 3 octobre : Bernard Tapie, homme d'affaires et homme politique français.
 7 octobre :
 Étienne Mougeotte, dirigeant de médias et journaliste français.
@@ -1065,9 +1388,43 @@
 25 octobre :
 Abdelmajid Chaker, militant nationaliste et homme politique tunisien.
 Fófi Gennimatá, femme politique grecque.
-29 octobre : Clément Mouamba, homme politique congolais (RC).
-Novembre
-1er novembre :
+29 octobre : Clément Mouamba, homme politique congolais (RC).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er novembre :
 Aaron Temkin Beck, psychiatre américain.
 Nelson Freire, pianiste brésilien.
 2 novembre : Tshitenge Lubabu, journaliste congolais.
@@ -1087,9 +1444,43 @@
 François Moncla, joueur de rugby à XV français.
 Virgil Abloh, styliste et directeur artistique américain.
 29 novembre : David Gulpilil, danseur et acteur australien.
-30 novembre : Marie-Claire Blais, écrivaine canadienne.
-Décembre
-1er décembre :
+30 novembre : Marie-Claire Blais, écrivaine canadienne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_2021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2021</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er décembre :
 Grand Jojo, chanteur belge.
 Alvin Lucier, compositeur américain.
 3 décembre : Lamine Diack, dirigeant sportif et homme politique sénégalais.
